--- a/sputnik/personal/uch/uch35.xlsx
+++ b/sputnik/personal/uch/uch35.xlsx
@@ -80,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,32 +127,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -161,15 +142,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,10 +462,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -493,97 +477,98 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>43221</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C3" s="3">
         <v>10424.75</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>43337</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>4555.8500000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43493</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="9">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6">
         <v>5868.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43493</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="5">
         <v>686.66</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>43493</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>686.66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43586</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="5">
         <v>10276.75</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch35.xlsx
+++ b/sputnik/personal/uch/uch35.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,13 +43,16 @@
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взноса 2018/2019 на 176 дн.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +64,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -131,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -155,6 +165,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -462,10 +480,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,10 +583,28 @@
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="8">
+        <v>43915</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>10276.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>43915</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1808.71</v>
+      </c>
+      <c r="D10" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch35.xlsx
+++ b/sputnik/personal/uch/uch35.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взноса 2018/2019 на 176 дн.</t>
+  </si>
+  <si>
+    <t>Оплачены пени за просрочку оплаты взноса 2018/2019 на 176 дн.</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -70,7 +76,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -141,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -173,6 +178,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -480,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,6 +612,29 @@
         <v>1808.71</v>
       </c>
       <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>43983</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14">
+        <v>1808.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11562.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch35.xlsx
+++ b/sputnik/personal/uch/uch35.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -179,7 +179,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,12 +629,49 @@
       <c r="A12" s="16">
         <v>43952</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>11562.5</v>
       </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>44113</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <v>11562.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch35.xlsx
+++ b/sputnik/personal/uch/uch35.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,9 +653,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="16">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>12330.25</v>
+      </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch35.xlsx
+++ b/sputnik/personal/uch/uch35.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +79,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -149,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -158,7 +165,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,6 +189,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,7 +504,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,21 +518,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>43221</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -533,7 +544,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>43337</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -545,142 +556,148 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>43493</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
         <v>5868.9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="16">
         <v>43493</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="18">
         <v>686.66</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="16">
         <v>43493</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18">
         <v>686.66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>43586</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>10276.75</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>43915</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>10276.75</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>43915</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>1808.71</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>43983</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
         <v>1808.71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43952</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>11562.5</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>44113</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <v>11562.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>44317</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>12330.25</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="15">
+        <v>44470</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>12330.25</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
